--- a/medicine/Enfance/Kenneth_Bird/Kenneth_Bird.xlsx
+++ b/medicine/Enfance/Kenneth_Bird/Kenneth_Bird.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kenneth Bird, né à Gloucester en 1916 et mort à Church Stretton, Shropshire, en 1993, est un auteur britannique de roman policier et de littérature d'enfance et de jeunesse. Il ne doit pas être confondu avec Cyril Kenneth Bird (1887-1965), le dessinateur du Punch connu sous le pseudonyme de « Fougasse ».
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il abandonne ses études à 14 ans pour se lancer dans le journalisme et travaille successivement pour plusieurs journaux locaux des Midlands de l’Ouest. Il sert dans l’aviation de la Royal Air Force pendant la Deuxième Guerre mondiale. Démobilisé, il redevient reporter, mais écrit également des pièces radiophoniques pour la BBC. Dans les années 1950, il entre au bureau de l’information de la BBC à Birmingham où il participe également à l’écriture d’un feuilleton radiophonique.
 Plusieurs de ces fictions policières mettent à profit les connaissances de l’auteur sur le milieu des médias et de la presse.
@@ -548,14 +562,57 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-Bishop Must Move (1967)
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bishop Must Move (1967)
 Smash a Glass Image (1968)
 The Mozart Fiddle (1969)
 Murder in Vision (1969) Publié en français sous le titre Sandra, Paris, Librairie des Champs-Élysées, Le Masque no 1150, 1971
-The Rainbow Colored Hearse (1970) Publié en français sous le titre Le Corbillard arc-en-ciel, Paris, Librairie des Champs-Élysées, Le Masque no 1198, 1971
-Ouvrages de littérature d’enfance et de jeunesse
-Série Himself, the Irish Dog
+The Rainbow Colored Hearse (1970) Publié en français sous le titre Le Corbillard arc-en-ciel, Paris, Librairie des Champs-Élysées, Le Masque no 1198, 1971</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kenneth_Bird</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kenneth_Bird</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Himself, the Irish Dog</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 A Dog Called Himself (1968)
 Himself and Macafferty’s Queen (1969)
 Stardom for Himself (1970)
@@ -569,41 +626,146 @@
 Himself and the Fake Santas (1978)
 Himself and the Tomorrow’s Ogre (1979)
 Himself and the Golden Ghost (1980)
-Nouvelle
-Terror on a Tape (1966)
-Théâtre
-A Nun’s Tale: a Comedy in One Act (1968)
-Autres publications
-You Have Been Warned: a Complete Guide to the Road (1935)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kenneth_Bird</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kenneth_Bird</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Terror on a Tape (1966)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kenneth_Bird</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kenneth_Bird</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A Nun’s Tale: a Comedy in One Act (1968)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kenneth_Bird</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kenneth_Bird</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>You Have Been Warned: a Complete Guide to the Road (1935)
 Ten Years of Television (The Growth and Development of the BBC Midlands Region Television Service, 1949-1959 (1959)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Kenneth_Bird</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Kenneth_Bird</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 63.</t>
         </is>
